--- a/data/pca/factorExposure/factorExposure_2009-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003576422680430628</v>
+        <v>0.01697499388317768</v>
       </c>
       <c r="C2">
-        <v>-0.008913014581683521</v>
+        <v>-0.001170023446435597</v>
       </c>
       <c r="D2">
-        <v>0.001351155782326465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006491871077374232</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003559635223473088</v>
+      </c>
+      <c r="F2">
+        <v>-0.01137052098628791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02971845959941287</v>
+        <v>0.09375601992200053</v>
       </c>
       <c r="C4">
-        <v>-0.1221908706006577</v>
+        <v>-0.0155933380549193</v>
       </c>
       <c r="D4">
-        <v>0.01767103853904198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08418373731531131</v>
+      </c>
+      <c r="E4">
+        <v>0.02845150562987449</v>
+      </c>
+      <c r="F4">
+        <v>0.03068631172708993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03693858888303928</v>
+        <v>0.1572064293843344</v>
       </c>
       <c r="C6">
-        <v>-0.1116617115884356</v>
+        <v>-0.0253478103031203</v>
       </c>
       <c r="D6">
-        <v>-0.03496826840873372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02205556690085535</v>
+      </c>
+      <c r="E6">
+        <v>0.009016239643466744</v>
+      </c>
+      <c r="F6">
+        <v>0.04647500559360881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009799979344335605</v>
+        <v>0.06262915157108474</v>
       </c>
       <c r="C7">
-        <v>-0.08308899705061595</v>
+        <v>0.001196459557892124</v>
       </c>
       <c r="D7">
-        <v>0.0009185811196391765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05202718595961681</v>
+      </c>
+      <c r="E7">
+        <v>0.009815929250752234</v>
+      </c>
+      <c r="F7">
+        <v>0.04655605930028225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003070880982571873</v>
+        <v>0.057165871118578</v>
       </c>
       <c r="C8">
-        <v>-0.06781238242684634</v>
+        <v>0.0134327678344891</v>
       </c>
       <c r="D8">
-        <v>-0.02042326740369357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03354435233175893</v>
+      </c>
+      <c r="E8">
+        <v>0.01746942048737445</v>
+      </c>
+      <c r="F8">
+        <v>-0.02820839665716647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0249673806658709</v>
+        <v>0.07134056756073008</v>
       </c>
       <c r="C9">
-        <v>-0.1013331308538131</v>
+        <v>-0.01129125530460014</v>
       </c>
       <c r="D9">
-        <v>0.02274363415296814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08598980893268841</v>
+      </c>
+      <c r="E9">
+        <v>0.02302971769672984</v>
+      </c>
+      <c r="F9">
+        <v>0.04726068434219267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01142392011453626</v>
+        <v>0.09612154456026165</v>
       </c>
       <c r="C10">
-        <v>-0.02333881923631061</v>
+        <v>-0.02043971575068044</v>
       </c>
       <c r="D10">
-        <v>-0.1363544446840068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1723704763248868</v>
+      </c>
+      <c r="E10">
+        <v>-0.03693440219187576</v>
+      </c>
+      <c r="F10">
+        <v>-0.05366626932737666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02920531756270815</v>
+        <v>0.08797255849021483</v>
       </c>
       <c r="C11">
-        <v>-0.1052211979336498</v>
+        <v>-0.01092619925176579</v>
       </c>
       <c r="D11">
-        <v>0.03271003038217418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1154402783759578</v>
+      </c>
+      <c r="E11">
+        <v>0.04578703011941315</v>
+      </c>
+      <c r="F11">
+        <v>0.02149583326808933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02660814612091938</v>
+        <v>0.09206447811874509</v>
       </c>
       <c r="C12">
-        <v>-0.1152822891665896</v>
+        <v>-0.00794002072901844</v>
       </c>
       <c r="D12">
-        <v>0.03004887926270613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131262957625784</v>
+      </c>
+      <c r="E12">
+        <v>0.04750564224914879</v>
+      </c>
+      <c r="F12">
+        <v>0.02541863738963983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008941749394463176</v>
+        <v>0.04239989790589788</v>
       </c>
       <c r="C13">
-        <v>-0.04317898038015931</v>
+        <v>-0.003432404772174326</v>
       </c>
       <c r="D13">
-        <v>0.02526809743490927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05120430453820852</v>
+      </c>
+      <c r="E13">
+        <v>-0.008612618902954304</v>
+      </c>
+      <c r="F13">
+        <v>0.00256038907119756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0159523761868864</v>
+        <v>0.02295425932207866</v>
       </c>
       <c r="C14">
-        <v>-0.0231579148288777</v>
+        <v>-0.01388419917938019</v>
       </c>
       <c r="D14">
-        <v>-0.005190562528081036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03319194324627308</v>
+      </c>
+      <c r="E14">
+        <v>0.01729254507966854</v>
+      </c>
+      <c r="F14">
+        <v>0.01435389341018812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01029717176523914</v>
+        <v>0.03283489172986083</v>
       </c>
       <c r="C15">
-        <v>-0.02785718721499608</v>
+        <v>-0.004849968576576037</v>
       </c>
       <c r="D15">
-        <v>0.01270431851670516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04542471226824331</v>
+      </c>
+      <c r="E15">
+        <v>0.006478515818839685</v>
+      </c>
+      <c r="F15">
+        <v>0.02273809479647783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01825273917233595</v>
+        <v>0.07411563998080163</v>
       </c>
       <c r="C16">
-        <v>-0.1089393162227684</v>
+        <v>-0.001978469227757106</v>
       </c>
       <c r="D16">
-        <v>0.01248965501177218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1251461300181004</v>
+      </c>
+      <c r="E16">
+        <v>0.06153930562051212</v>
+      </c>
+      <c r="F16">
+        <v>0.02426818407013296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03162913480343897</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003261471909727955</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01889413742565507</v>
+      </c>
+      <c r="E18">
+        <v>-0.00751008481822807</v>
+      </c>
+      <c r="F18">
+        <v>-0.003576018500966892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01164083750854978</v>
+        <v>0.06099339933123771</v>
       </c>
       <c r="C20">
-        <v>-0.0652781601819641</v>
+        <v>-0.0003387402317818315</v>
       </c>
       <c r="D20">
-        <v>7.172942412419624e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07711255928119785</v>
+      </c>
+      <c r="E20">
+        <v>0.0555099639928686</v>
+      </c>
+      <c r="F20">
+        <v>0.02313931303734231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01265329987602339</v>
+        <v>0.0404717851770306</v>
       </c>
       <c r="C21">
-        <v>-0.02343642049983214</v>
+        <v>-0.00651176623742976</v>
       </c>
       <c r="D21">
-        <v>-0.002098134164429714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03657395105735682</v>
+      </c>
+      <c r="E21">
+        <v>-0.00597575019103375</v>
+      </c>
+      <c r="F21">
+        <v>-0.02417378032369891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.00478385980633303</v>
+        <v>0.04393829251129212</v>
       </c>
       <c r="C22">
-        <v>-0.02865055611616976</v>
+        <v>-0.001039038611738172</v>
       </c>
       <c r="D22">
-        <v>-0.04191468050692077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00293080050278138</v>
+      </c>
+      <c r="E22">
+        <v>0.02947379518301426</v>
+      </c>
+      <c r="F22">
+        <v>-0.03468594480871538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.00477185193607551</v>
+        <v>0.04392389100517224</v>
       </c>
       <c r="C23">
-        <v>-0.02858455769012898</v>
+        <v>-0.001034771968250482</v>
       </c>
       <c r="D23">
-        <v>-0.04198881863944249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002935417480471209</v>
+      </c>
+      <c r="E23">
+        <v>0.02967531757656415</v>
+      </c>
+      <c r="F23">
+        <v>-0.03464879050386422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01864718076360265</v>
+        <v>0.08038781336874071</v>
       </c>
       <c r="C24">
-        <v>-0.1120680417678296</v>
+        <v>-0.002570504999332778</v>
       </c>
       <c r="D24">
-        <v>0.02354998064449623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1196610539245358</v>
+      </c>
+      <c r="E24">
+        <v>0.04882875925877005</v>
+      </c>
+      <c r="F24">
+        <v>0.02581147522460882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02406553865286015</v>
+        <v>0.08528607838233059</v>
       </c>
       <c r="C25">
-        <v>-0.1129402626706615</v>
+        <v>-0.004763533127517752</v>
       </c>
       <c r="D25">
-        <v>0.01959765085961243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1082043639337463</v>
+      </c>
+      <c r="E25">
+        <v>0.0321887715967135</v>
+      </c>
+      <c r="F25">
+        <v>0.02638848254923716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02369448918809678</v>
+        <v>0.05780363926867319</v>
       </c>
       <c r="C26">
-        <v>-0.04971872539739577</v>
+        <v>-0.01456823533748754</v>
       </c>
       <c r="D26">
-        <v>-0.01913175949718799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03950544944889865</v>
+      </c>
+      <c r="E26">
+        <v>0.02754998370552358</v>
+      </c>
+      <c r="F26">
+        <v>-0.009530464677141963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.00403761290258003</v>
+        <v>0.1405318268831601</v>
       </c>
       <c r="C28">
-        <v>-0.02733093739225486</v>
+        <v>-0.01950638321368222</v>
       </c>
       <c r="D28">
-        <v>-0.1945646385631269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2634652697645675</v>
+      </c>
+      <c r="E28">
+        <v>-0.06828137519341752</v>
+      </c>
+      <c r="F28">
+        <v>0.009025236781312191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01276591730429292</v>
+        <v>0.02767321432679229</v>
       </c>
       <c r="C29">
-        <v>-0.02863820754642026</v>
+        <v>-0.008145281029619601</v>
       </c>
       <c r="D29">
-        <v>-0.01121462076578754</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03239040978027791</v>
+      </c>
+      <c r="E29">
+        <v>0.01131856100673597</v>
+      </c>
+      <c r="F29">
+        <v>-0.01038937351683914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0148096187617064</v>
+        <v>0.06153491700560746</v>
       </c>
       <c r="C30">
-        <v>-0.131448980846608</v>
+        <v>-0.003806043934850221</v>
       </c>
       <c r="D30">
-        <v>0.01788004592235258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08787740128566382</v>
+      </c>
+      <c r="E30">
+        <v>0.01914993772617395</v>
+      </c>
+      <c r="F30">
+        <v>0.08306977489421913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0216964911342398</v>
+        <v>0.0499426941244702</v>
       </c>
       <c r="C31">
-        <v>-0.03741120315036823</v>
+        <v>-0.01523726512313606</v>
       </c>
       <c r="D31">
-        <v>-0.004280568465178862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02485828803106973</v>
+      </c>
+      <c r="E31">
+        <v>0.0274735775745668</v>
+      </c>
+      <c r="F31">
+        <v>-0.002827511012148187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.007349263832108661</v>
+        <v>0.04990059364386676</v>
       </c>
       <c r="C32">
-        <v>-0.06003925853276791</v>
+        <v>0.001724202578091342</v>
       </c>
       <c r="D32">
-        <v>-0.03041774853716969</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03627535940006815</v>
+      </c>
+      <c r="E32">
+        <v>0.03098359063288692</v>
+      </c>
+      <c r="F32">
+        <v>0.00220070388912116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02207995389862403</v>
+        <v>0.08959822093691211</v>
       </c>
       <c r="C33">
-        <v>-0.11605841289198</v>
+        <v>-0.007977256818559826</v>
       </c>
       <c r="D33">
-        <v>0.02133242318019145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09893120751943009</v>
+      </c>
+      <c r="E33">
+        <v>0.04412219756857658</v>
+      </c>
+      <c r="F33">
+        <v>0.03567019567277861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02588992397323431</v>
+        <v>0.06842396909114351</v>
       </c>
       <c r="C34">
-        <v>-0.09408083282871238</v>
+        <v>-0.01101948729768886</v>
       </c>
       <c r="D34">
-        <v>0.01343947291738137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1063786064631993</v>
+      </c>
+      <c r="E34">
+        <v>0.03450400800489604</v>
+      </c>
+      <c r="F34">
+        <v>0.03352513957665544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003852873440506182</v>
+        <v>0.02414534167494425</v>
       </c>
       <c r="C35">
-        <v>-0.01489217025952386</v>
+        <v>-0.002394534302048998</v>
       </c>
       <c r="D35">
-        <v>0.0003517404033834943</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0117907569347266</v>
+      </c>
+      <c r="E35">
+        <v>0.01172924875286579</v>
+      </c>
+      <c r="F35">
+        <v>0.0009801237584414375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01069004426306937</v>
+        <v>0.02757071660579147</v>
       </c>
       <c r="C36">
-        <v>-0.02778361478982645</v>
+        <v>-0.007124577923712994</v>
       </c>
       <c r="D36">
-        <v>0.008809875481121833</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03959398564839002</v>
+      </c>
+      <c r="E36">
+        <v>0.01612039140801886</v>
+      </c>
+      <c r="F36">
+        <v>0.01527118217396252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003990546235371301</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.198000707078288e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004318803518562676</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004004240936602193</v>
+      </c>
+      <c r="F37">
+        <v>0.0007236386175636273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005712072657376264</v>
+        <v>0.001352104558338297</v>
       </c>
       <c r="C38">
-        <v>-0.003975648919508953</v>
+        <v>-0.0002100223352097555</v>
       </c>
       <c r="D38">
-        <v>-0.001845165214142743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004909560183234867</v>
+      </c>
+      <c r="E38">
+        <v>0.0008392762909660954</v>
+      </c>
+      <c r="F38">
+        <v>-0.0005454564029996551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.0414037388661397</v>
+        <v>0.1057752806103638</v>
       </c>
       <c r="C39">
-        <v>-0.1676469859391285</v>
+        <v>-0.01628922282107751</v>
       </c>
       <c r="D39">
-        <v>0.04791176337600499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1534246231947854</v>
+      </c>
+      <c r="E39">
+        <v>0.05900369474763128</v>
+      </c>
+      <c r="F39">
+        <v>0.02806966418048425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01105490523899772</v>
+        <v>0.04129700655788217</v>
       </c>
       <c r="C40">
-        <v>-0.01412842910468569</v>
+        <v>-0.00710509749918945</v>
       </c>
       <c r="D40">
-        <v>-0.00849258634618971</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03124008617208035</v>
+      </c>
+      <c r="E40">
+        <v>0.002837372945856314</v>
+      </c>
+      <c r="F40">
+        <v>-0.01578194125842312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01128053408543212</v>
+        <v>0.02764178339159204</v>
       </c>
       <c r="C41">
-        <v>-0.01941079827014222</v>
+        <v>-0.006697970171730966</v>
       </c>
       <c r="D41">
-        <v>-0.01669985594723114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01078361468546947</v>
+      </c>
+      <c r="E41">
+        <v>0.01259284447808384</v>
+      </c>
+      <c r="F41">
+        <v>-0.006761699109251911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01310627861336734</v>
+        <v>0.04051686663091884</v>
       </c>
       <c r="C43">
-        <v>-0.02755335928727918</v>
+        <v>-0.00669321675741551</v>
       </c>
       <c r="D43">
-        <v>-0.01149219854870526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02052570846977754</v>
+      </c>
+      <c r="E43">
+        <v>0.02506707871009347</v>
+      </c>
+      <c r="F43">
+        <v>-0.01280064491024422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0308955455619668</v>
+        <v>0.08044131001447453</v>
       </c>
       <c r="C44">
-        <v>-0.1312222148435378</v>
+        <v>-0.02017406503969987</v>
       </c>
       <c r="D44">
-        <v>0.001961518890352926</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09842628095995304</v>
+      </c>
+      <c r="E44">
+        <v>0.06634246134813926</v>
+      </c>
+      <c r="F44">
+        <v>0.1571815207302675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005395367673335405</v>
+        <v>0.0233638455381414</v>
       </c>
       <c r="C46">
-        <v>-0.006357105214504784</v>
+        <v>-0.003287809405314453</v>
       </c>
       <c r="D46">
-        <v>-0.01876790698118226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01404983636874647</v>
+      </c>
+      <c r="E46">
+        <v>0.02285036552022423</v>
+      </c>
+      <c r="F46">
+        <v>-0.00461201633982271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01025049451446522</v>
+        <v>0.05147874930491308</v>
       </c>
       <c r="C47">
-        <v>-0.03106395666907054</v>
+        <v>-0.003477549201404372</v>
       </c>
       <c r="D47">
-        <v>-0.02847310821260967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01403505550874012</v>
+      </c>
+      <c r="E47">
+        <v>0.0236858771428468</v>
+      </c>
+      <c r="F47">
+        <v>-0.03367174439695416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01167299970069173</v>
+        <v>0.04976564665754626</v>
       </c>
       <c r="C48">
-        <v>-0.04898747684239534</v>
+        <v>-0.002373565867476894</v>
       </c>
       <c r="D48">
-        <v>0.01201712747273601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04997058927890705</v>
+      </c>
+      <c r="E48">
+        <v>-0.006337518301409884</v>
+      </c>
+      <c r="F48">
+        <v>0.009384118134167729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03611007878530686</v>
+        <v>0.1996625284247882</v>
       </c>
       <c r="C49">
-        <v>-0.2165277855014055</v>
+        <v>-0.01860326562932691</v>
       </c>
       <c r="D49">
-        <v>-0.06641265454864811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007905070655560349</v>
+      </c>
+      <c r="E49">
+        <v>0.03138863449378294</v>
+      </c>
+      <c r="F49">
+        <v>0.03892410102329997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01833950520468091</v>
+        <v>0.0507314609852737</v>
       </c>
       <c r="C50">
-        <v>-0.0410129302016677</v>
+        <v>-0.01125825762091017</v>
       </c>
       <c r="D50">
-        <v>-0.01166828103664834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0233026678536088</v>
+      </c>
+      <c r="E50">
+        <v>0.02931818967958732</v>
+      </c>
+      <c r="F50">
+        <v>0.008557870534685158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004537321931985035</v>
+        <v>0.0009206360919333701</v>
       </c>
       <c r="C51">
-        <v>-0.00219231085680711</v>
+        <v>-0.0002589315533369834</v>
       </c>
       <c r="D51">
-        <v>-0.003218462218006935</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.000635343025196248</v>
+      </c>
+      <c r="E51">
+        <v>6.528931808661369e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002905605867459517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02982041307242271</v>
+        <v>0.1460591623483533</v>
       </c>
       <c r="C52">
-        <v>-0.1501965805844411</v>
+        <v>-0.01543581307857961</v>
       </c>
       <c r="D52">
-        <v>0.01891878821240948</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04553170472859409</v>
+      </c>
+      <c r="E52">
+        <v>0.02051569952025203</v>
+      </c>
+      <c r="F52">
+        <v>0.04081644696343183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03081040577029244</v>
+        <v>0.1725183446853056</v>
       </c>
       <c r="C53">
-        <v>-0.173169437927705</v>
+        <v>-0.01876578011005838</v>
       </c>
       <c r="D53">
-        <v>-0.01493683151744678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00571436638020443</v>
+      </c>
+      <c r="E53">
+        <v>0.03132680955484151</v>
+      </c>
+      <c r="F53">
+        <v>0.07253599124852014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01569469739675503</v>
+        <v>0.02213915064988285</v>
       </c>
       <c r="C54">
-        <v>-0.03939707887727942</v>
+        <v>-0.01253917581936581</v>
       </c>
       <c r="D54">
-        <v>-0.01267806736118899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03372455337061937</v>
+      </c>
+      <c r="E54">
+        <v>0.01832067688053638</v>
+      </c>
+      <c r="F54">
+        <v>-0.00392823451432315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02399552330240377</v>
+        <v>0.1139707385099317</v>
       </c>
       <c r="C55">
-        <v>-0.08640211697344392</v>
+        <v>-0.01647824821063213</v>
       </c>
       <c r="D55">
-        <v>0.002236574013328054</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009372230876150339</v>
+      </c>
+      <c r="E55">
+        <v>0.02784233069716826</v>
+      </c>
+      <c r="F55">
+        <v>0.04646234731695217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03182880296709546</v>
+        <v>0.1770172714356563</v>
       </c>
       <c r="C56">
-        <v>-0.1603601648244761</v>
+        <v>-0.01616968889917335</v>
       </c>
       <c r="D56">
-        <v>-0.02685932087435878</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001387975979791921</v>
+      </c>
+      <c r="E56">
+        <v>0.03575357831870741</v>
+      </c>
+      <c r="F56">
+        <v>0.05093165896202976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01239603587395555</v>
+        <v>0.04655997398882979</v>
       </c>
       <c r="C58">
-        <v>-0.05059765838581397</v>
+        <v>-0.0008759112619431401</v>
       </c>
       <c r="D58">
-        <v>0.007107424346748633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0668079317473604</v>
+      </c>
+      <c r="E58">
+        <v>0.02759468776520013</v>
+      </c>
+      <c r="F58">
+        <v>-0.03670632704252177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01181846390476697</v>
+        <v>0.1671977782805641</v>
       </c>
       <c r="C59">
-        <v>-0.08040912139944709</v>
+        <v>-0.01966354795416919</v>
       </c>
       <c r="D59">
-        <v>-0.2095323293827143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2168729321937009</v>
+      </c>
+      <c r="E59">
+        <v>-0.04488159964289586</v>
+      </c>
+      <c r="F59">
+        <v>-0.03534464040546832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02453133199978592</v>
+        <v>0.2312218985295982</v>
       </c>
       <c r="C60">
-        <v>-0.2716908916767102</v>
+        <v>0.00269909740749163</v>
       </c>
       <c r="D60">
-        <v>0.006034560294479819</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04195181828530467</v>
+      </c>
+      <c r="E60">
+        <v>0.01108614078324646</v>
+      </c>
+      <c r="F60">
+        <v>-0.006476896227743782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02912579248137295</v>
+        <v>0.08237663277495204</v>
       </c>
       <c r="C61">
-        <v>-0.1251615602106944</v>
+        <v>-0.01219916544312469</v>
       </c>
       <c r="D61">
-        <v>0.01702194170857357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155214053394973</v>
+      </c>
+      <c r="E61">
+        <v>0.03859062588368286</v>
+      </c>
+      <c r="F61">
+        <v>0.01090036872241173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03382061793818528</v>
+        <v>0.1705847056952319</v>
       </c>
       <c r="C62">
-        <v>-0.1621382603022723</v>
+        <v>-0.01951723413375258</v>
       </c>
       <c r="D62">
-        <v>-0.02317272429256582</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00723335132829535</v>
+      </c>
+      <c r="E62">
+        <v>0.03500622529612483</v>
+      </c>
+      <c r="F62">
+        <v>0.03436002166513048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01195706247400061</v>
+        <v>0.04560155387645016</v>
       </c>
       <c r="C63">
-        <v>-0.05452837073195514</v>
+        <v>-0.002018844778942321</v>
       </c>
       <c r="D63">
-        <v>0.003641535669378207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0582274215542208</v>
+      </c>
+      <c r="E63">
+        <v>0.02122255460933681</v>
+      </c>
+      <c r="F63">
+        <v>0.005808302425003081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02304937490309808</v>
+        <v>0.1109862470404809</v>
       </c>
       <c r="C64">
-        <v>-0.09583142006368617</v>
+        <v>-0.01135101551432668</v>
       </c>
       <c r="D64">
-        <v>-0.007483394709263859</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04236023870756789</v>
+      </c>
+      <c r="E64">
+        <v>0.02397689716275463</v>
+      </c>
+      <c r="F64">
+        <v>0.02565716346332358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03755527102034652</v>
+        <v>0.1480984140232272</v>
       </c>
       <c r="C65">
-        <v>-0.1043877211539225</v>
+        <v>-0.03263692562857066</v>
       </c>
       <c r="D65">
-        <v>-0.01529300633587898</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0423394363788909</v>
+      </c>
+      <c r="E65">
+        <v>0.002695941485694007</v>
+      </c>
+      <c r="F65">
+        <v>0.03997965336639255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04011932257305676</v>
+        <v>0.1252922546009703</v>
       </c>
       <c r="C66">
-        <v>-0.1975514221370116</v>
+        <v>-0.01439811412579482</v>
       </c>
       <c r="D66">
-        <v>0.02990750553486213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.141861880586427</v>
+      </c>
+      <c r="E66">
+        <v>0.06658560490031311</v>
+      </c>
+      <c r="F66">
+        <v>0.03059734153025265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01430017315711648</v>
+        <v>0.06079862005533489</v>
       </c>
       <c r="C67">
-        <v>-0.07629679738290278</v>
+        <v>-0.0033106969821703</v>
       </c>
       <c r="D67">
-        <v>0.000873442836852628</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05584758992302927</v>
+      </c>
+      <c r="E67">
+        <v>0.01762986923787947</v>
+      </c>
+      <c r="F67">
+        <v>-0.03371326930863629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01499535307676915</v>
+        <v>0.1161805745821702</v>
       </c>
       <c r="C68">
-        <v>-0.01701454890951787</v>
+        <v>-0.02994949702688442</v>
       </c>
       <c r="D68">
-        <v>-0.1835923519558285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2601894391030005</v>
+      </c>
+      <c r="E68">
+        <v>-0.08673143189530622</v>
+      </c>
+      <c r="F68">
+        <v>0.005423958981438217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005537745694965247</v>
+        <v>0.03983779427278919</v>
       </c>
       <c r="C69">
-        <v>-0.03347950688714767</v>
+        <v>-0.001416471463823782</v>
       </c>
       <c r="D69">
-        <v>-0.005362335432433149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007150005443029262</v>
+      </c>
+      <c r="E69">
+        <v>0.02309328448780668</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009949215181556535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001119041392662799</v>
+        <v>0.06584015639793728</v>
       </c>
       <c r="C70">
-        <v>-0.0355714444102628</v>
+        <v>0.02796334374320856</v>
       </c>
       <c r="D70">
-        <v>-0.002374692411258023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02504915191163975</v>
+      </c>
+      <c r="E70">
+        <v>-0.03978117625206106</v>
+      </c>
+      <c r="F70">
+        <v>-0.1861459231290511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01859700801426587</v>
+        <v>0.1363506450623393</v>
       </c>
       <c r="C71">
-        <v>-0.02335356748194131</v>
+        <v>-0.03455238500108199</v>
       </c>
       <c r="D71">
-        <v>-0.1954239064629164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2732557077200428</v>
+      </c>
+      <c r="E71">
+        <v>-0.09635207905077421</v>
+      </c>
+      <c r="F71">
+        <v>0.01214443804709826</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03517996308658597</v>
+        <v>0.1419098777414439</v>
       </c>
       <c r="C72">
-        <v>-0.1190510249436971</v>
+        <v>-0.02575027924322945</v>
       </c>
       <c r="D72">
-        <v>-0.03813837389688091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0003966776941535617</v>
+      </c>
+      <c r="E72">
+        <v>0.03888501778406528</v>
+      </c>
+      <c r="F72">
+        <v>0.0351185983457491</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03250788034969286</v>
+        <v>0.2007268806419007</v>
       </c>
       <c r="C73">
-        <v>-0.2156213338304825</v>
+        <v>-0.01257938261403428</v>
       </c>
       <c r="D73">
-        <v>-0.06356216095987471</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01714950420911524</v>
+      </c>
+      <c r="E73">
+        <v>0.0646315392915799</v>
+      </c>
+      <c r="F73">
+        <v>0.03833641311995969</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01920482612004915</v>
+        <v>0.0949252185610947</v>
       </c>
       <c r="C74">
-        <v>-0.1066154217211201</v>
+        <v>-0.01315647390204869</v>
       </c>
       <c r="D74">
-        <v>-0.02254718805678323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01784762856487018</v>
+      </c>
+      <c r="E74">
+        <v>0.0445843372432405</v>
+      </c>
+      <c r="F74">
+        <v>0.05606020570517776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04040958475733092</v>
+        <v>0.1283184091342045</v>
       </c>
       <c r="C75">
-        <v>-0.1332058877384514</v>
+        <v>-0.02767897269252906</v>
       </c>
       <c r="D75">
-        <v>-0.03317284248135884</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03036126384387517</v>
+      </c>
+      <c r="E75">
+        <v>0.05804609271910244</v>
+      </c>
+      <c r="F75">
+        <v>0.01757857742536293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003003752211764662</v>
+        <v>0.0008659554062359559</v>
       </c>
       <c r="C76">
-        <v>-0.002675060677042666</v>
+        <v>-0.0002411714938078428</v>
       </c>
       <c r="D76">
-        <v>-0.003537842582158765</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0007954265033802995</v>
+      </c>
+      <c r="E76">
+        <v>0.0001632888861526766</v>
+      </c>
+      <c r="F76">
+        <v>0.0007667308667978832</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02416836659514333</v>
+        <v>0.08510452671122842</v>
       </c>
       <c r="C77">
-        <v>-0.1008062922080646</v>
+        <v>-0.0080648688434297</v>
       </c>
       <c r="D77">
-        <v>0.0523059774352137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1134345041646653</v>
+      </c>
+      <c r="E77">
+        <v>0.03846151970024635</v>
+      </c>
+      <c r="F77">
+        <v>0.03096891586419368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05338706914793207</v>
+        <v>0.09984036612805661</v>
       </c>
       <c r="C78">
-        <v>-0.1413451292747039</v>
+        <v>-0.03943930644643685</v>
       </c>
       <c r="D78">
-        <v>-0.02082042814420838</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1166964680491618</v>
+      </c>
+      <c r="E78">
+        <v>0.0749200286631093</v>
+      </c>
+      <c r="F78">
+        <v>0.04605892901393926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03550285325501445</v>
+        <v>0.1647359118447614</v>
       </c>
       <c r="C79">
-        <v>-0.1443319959701136</v>
+        <v>-0.02217979993406517</v>
       </c>
       <c r="D79">
-        <v>-0.0349313468264474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01628638368546846</v>
+      </c>
+      <c r="E79">
+        <v>0.04697970914426365</v>
+      </c>
+      <c r="F79">
+        <v>0.01102691686583572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.007640799478017882</v>
+        <v>0.08237608291536888</v>
       </c>
       <c r="C80">
-        <v>-0.08204210894198771</v>
+        <v>0.0008805337968125048</v>
       </c>
       <c r="D80">
-        <v>-0.006630934128357985</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05735170525374211</v>
+      </c>
+      <c r="E80">
+        <v>0.03730414269170645</v>
+      </c>
+      <c r="F80">
+        <v>-0.02451687003573374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04231261516615009</v>
+        <v>0.1215753805437209</v>
       </c>
       <c r="C81">
-        <v>-0.1383383267230048</v>
+        <v>-0.03155894880499233</v>
       </c>
       <c r="D81">
-        <v>-0.01829789430863476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01632672718619236</v>
+      </c>
+      <c r="E81">
+        <v>0.05790623173437016</v>
+      </c>
+      <c r="F81">
+        <v>0.0157831452619238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03685226702172419</v>
+        <v>0.1664719411185616</v>
       </c>
       <c r="C82">
-        <v>-0.1650351573076352</v>
+        <v>-0.02404791767808522</v>
       </c>
       <c r="D82">
-        <v>-0.03144567850260292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003732169214316103</v>
+      </c>
+      <c r="E82">
+        <v>0.02780439601885933</v>
+      </c>
+      <c r="F82">
+        <v>0.0791348183400348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01712743730362594</v>
+        <v>0.06072722274725248</v>
       </c>
       <c r="C83">
-        <v>-0.07488368380563398</v>
+        <v>-0.003117690280247405</v>
       </c>
       <c r="D83">
-        <v>-0.004290332854070452</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05004883055955628</v>
+      </c>
+      <c r="E83">
+        <v>0.004705491039424561</v>
+      </c>
+      <c r="F83">
+        <v>-0.03199708469401737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02622265939598761</v>
+        <v>0.05811645212165059</v>
       </c>
       <c r="C84">
-        <v>-0.07943170620729779</v>
+        <v>-0.01098352561405683</v>
       </c>
       <c r="D84">
-        <v>0.01045828949778813</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06511500636218799</v>
+      </c>
+      <c r="E84">
+        <v>0.007441397681009121</v>
+      </c>
+      <c r="F84">
+        <v>0.003557811512518584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03705150594907309</v>
+        <v>0.1366091020204233</v>
       </c>
       <c r="C85">
-        <v>-0.1186986309950297</v>
+        <v>-0.02749733644073694</v>
       </c>
       <c r="D85">
-        <v>-0.01572657872470433</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01176934408085328</v>
+      </c>
+      <c r="E85">
+        <v>0.03904653488794659</v>
+      </c>
+      <c r="F85">
+        <v>0.04528556606569403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007909549349256655</v>
+        <v>0.09365726189110067</v>
       </c>
       <c r="C86">
-        <v>-0.08768319542094789</v>
+        <v>0.00643657569136787</v>
       </c>
       <c r="D86">
-        <v>-0.2270116518966079</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0420800978817514</v>
+      </c>
+      <c r="E86">
+        <v>0.2111438248409713</v>
+      </c>
+      <c r="F86">
+        <v>-0.9085510864208742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03815324654165107</v>
+        <v>0.09694866326076847</v>
       </c>
       <c r="C87">
-        <v>-0.1033107742582937</v>
+        <v>-0.01998862696048034</v>
       </c>
       <c r="D87">
-        <v>0.05740570351567861</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09571131883348268</v>
+      </c>
+      <c r="E87">
+        <v>-0.05069657607333243</v>
+      </c>
+      <c r="F87">
+        <v>0.05303830906293264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01272314328774926</v>
+        <v>0.06088536086806606</v>
       </c>
       <c r="C88">
-        <v>-0.06016507482222847</v>
+        <v>-0.002270928307738778</v>
       </c>
       <c r="D88">
-        <v>0.005705024201905885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05001320175551427</v>
+      </c>
+      <c r="E88">
+        <v>0.02476131970289351</v>
+      </c>
+      <c r="F88">
+        <v>0.01190048015039412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0001409840111280067</v>
+        <v>0.1343563472731236</v>
       </c>
       <c r="C89">
-        <v>-0.04316014188879941</v>
+        <v>-0.0124186719098157</v>
       </c>
       <c r="D89">
-        <v>-0.2380212734212986</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2527115770513749</v>
+      </c>
+      <c r="E89">
+        <v>-0.09117934134816419</v>
+      </c>
+      <c r="F89">
+        <v>-0.00840651307199535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01728520835529858</v>
+        <v>0.1495710744132807</v>
       </c>
       <c r="C90">
-        <v>-0.02681174050273104</v>
+        <v>-0.0305705277817305</v>
       </c>
       <c r="D90">
-        <v>-0.2051292442582383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683999437617398</v>
+      </c>
+      <c r="E90">
+        <v>-0.1116027241770249</v>
+      </c>
+      <c r="F90">
+        <v>-0.001721406574245203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02275200446261624</v>
+        <v>0.1202563437739202</v>
       </c>
       <c r="C91">
-        <v>-0.09893729949981993</v>
+        <v>-0.01858733277655646</v>
       </c>
       <c r="D91">
-        <v>-0.02552741719876546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0129147121340645</v>
+      </c>
+      <c r="E91">
+        <v>0.05609613641245805</v>
+      </c>
+      <c r="F91">
+        <v>-0.003484204069572093</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001765502981038869</v>
+        <v>0.1477090060463788</v>
       </c>
       <c r="C92">
-        <v>-0.03644294077548066</v>
+        <v>-0.02261286484944017</v>
       </c>
       <c r="D92">
-        <v>-0.2165294628556281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2915913033307735</v>
+      </c>
+      <c r="E92">
+        <v>-0.100346757613754</v>
+      </c>
+      <c r="F92">
+        <v>-0.0135679507596877</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01380925145808061</v>
+        <v>0.1517711157074487</v>
       </c>
       <c r="C93">
-        <v>-0.03850015170396729</v>
+        <v>-0.02664716615338828</v>
       </c>
       <c r="D93">
-        <v>-0.2231300155354386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2689392631312171</v>
+      </c>
+      <c r="E93">
+        <v>-0.07760814051641196</v>
+      </c>
+      <c r="F93">
+        <v>0.002791313356497607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04023478376573605</v>
+        <v>0.1309774653353918</v>
       </c>
       <c r="C94">
-        <v>-0.1528337241440427</v>
+        <v>-0.02456008480714434</v>
       </c>
       <c r="D94">
-        <v>-0.02565988416856223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04298486820742249</v>
+      </c>
+      <c r="E94">
+        <v>0.05771107274938383</v>
+      </c>
+      <c r="F94">
+        <v>0.03560113240824297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02485562212716323</v>
+        <v>0.1275856761413653</v>
       </c>
       <c r="C95">
-        <v>-0.1436979377328496</v>
+        <v>-0.004112354900082073</v>
       </c>
       <c r="D95">
-        <v>0.01409598097020893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09121787124153326</v>
+      </c>
+      <c r="E95">
+        <v>0.04655165809247096</v>
+      </c>
+      <c r="F95">
+        <v>-0.007244290587167467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9767909783540997</v>
+        <v>0.1052416372946867</v>
       </c>
       <c r="C96">
-        <v>-0.1939776554988847</v>
+        <v>0.9878114189738598</v>
       </c>
       <c r="D96">
-        <v>-0.02326566023464698</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04389689328870661</v>
+      </c>
+      <c r="E96">
+        <v>0.05586459769212446</v>
+      </c>
+      <c r="F96">
+        <v>0.0423733896608017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.003651150698821012</v>
+        <v>0.1931687916854315</v>
       </c>
       <c r="C97">
-        <v>-0.16112669957661</v>
+        <v>0.007763850321099246</v>
       </c>
       <c r="D97">
-        <v>-0.1061140410798378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01761326026247752</v>
+      </c>
+      <c r="E97">
+        <v>0.01747508913396339</v>
+      </c>
+      <c r="F97">
+        <v>-0.08968439831191607</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02460099642777904</v>
+        <v>0.2043029730458604</v>
       </c>
       <c r="C98">
-        <v>-0.1981209227916461</v>
+        <v>-0.00721032736438905</v>
       </c>
       <c r="D98">
-        <v>-0.02820708400022156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01161312982840216</v>
+      </c>
+      <c r="E98">
+        <v>-0.08446674341605617</v>
+      </c>
+      <c r="F98">
+        <v>-0.09525768629835918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003419068948569799</v>
+        <v>0.05543090561188338</v>
       </c>
       <c r="C99">
-        <v>-0.06075503679087822</v>
+        <v>0.004916637712568754</v>
       </c>
       <c r="D99">
-        <v>-0.02136393172360868</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04011473665946829</v>
+      </c>
+      <c r="E99">
+        <v>0.02342306009805991</v>
+      </c>
+      <c r="F99">
+        <v>0.001335371906761892</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.007023089670886095</v>
+        <v>0.1251635722548786</v>
       </c>
       <c r="C100">
-        <v>-0.1978919990249138</v>
+        <v>0.05381019303423056</v>
       </c>
       <c r="D100">
-        <v>0.7245188774407249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3449625233471253</v>
+      </c>
+      <c r="E100">
+        <v>-0.8894022236681448</v>
+      </c>
+      <c r="F100">
+        <v>-0.1389206513164505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01278307202801932</v>
+        <v>0.02759703869842314</v>
       </c>
       <c r="C101">
-        <v>-0.02863962331508024</v>
+        <v>-0.00815418398812497</v>
       </c>
       <c r="D101">
-        <v>-0.01107875940687375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03210147061119668</v>
+      </c>
+      <c r="E101">
+        <v>0.01076506724938395</v>
+      </c>
+      <c r="F101">
+        <v>-0.01167263247193739</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
